--- a/CallCenter/ReportingFolder/Recovery_Rerpot.xlsx
+++ b/CallCenter/ReportingFolder/Recovery_Rerpot.xlsx
@@ -131,6 +131,57 @@
     <t>2018-05-15 03:05:42</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>10101</t>
+  </si>
+  <si>
+    <t>Patrascu Claudiu</t>
+  </si>
+  <si>
+    <t>2300.0</t>
+  </si>
+  <si>
+    <t>750.0</t>
+  </si>
+  <si>
+    <t>1550.0</t>
+  </si>
+  <si>
+    <t>2018-05-14</t>
+  </si>
+  <si>
+    <t>2018-05-14 20:05:24</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>10108</t>
+  </si>
+  <si>
+    <t>Anamaria Georgescu</t>
+  </si>
+  <si>
+    <t>2020.0</t>
+  </si>
+  <si>
+    <t>CLOSED</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>10109</t>
+  </si>
+  <si>
+    <t>Bogdan Marcu</t>
+  </si>
+  <si>
+    <t>1755.0</t>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
@@ -146,57 +197,6 @@
     <t>2018-05-15 03:05:20</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>10101</t>
-  </si>
-  <si>
-    <t>Patrascu Claudiu</t>
-  </si>
-  <si>
-    <t>2300.0</t>
-  </si>
-  <si>
-    <t>750.0</t>
-  </si>
-  <si>
-    <t>1550.0</t>
-  </si>
-  <si>
-    <t>2018-05-14</t>
-  </si>
-  <si>
-    <t>2018-05-14 20:05:24</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>10108</t>
-  </si>
-  <si>
-    <t>Anamaria Georgescu</t>
-  </si>
-  <si>
-    <t>2020.0</t>
-  </si>
-  <si>
-    <t>CLOSED</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>10109</t>
-  </si>
-  <si>
-    <t>Bogdan Marcu</t>
-  </si>
-  <si>
-    <t>1755.0</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
@@ -278,10 +278,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>4.89%</t>
-  </si>
-  <si>
-    <t>100.0%</t>
+    <t>6.28%</t>
+  </si>
+  <si>
+    <t>52.65%</t>
   </si>
   <si>
     <t>5.33%</t>
@@ -490,10 +490,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.5454545454545454</c:v>
+                  <c:v>0.4545454545454545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1818181818181818</c:v>
+                  <c:v>0.2727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1818181818181818</c:v>
@@ -643,10 +643,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.5398557100123175</c:v>
+                  <c:v>0.4203765616751716</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1328523667077248</c:v>
+                  <c:v>0.2523315150448707</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.2973781453457681</c:v>
@@ -1079,16 +1079,16 @@
         <v>84</v>
       </c>
       <c r="C4" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>15340</v>
+        <v>11945</v>
       </c>
       <c r="E4" s="2">
         <v>750</v>
       </c>
       <c r="F4" s="2">
-        <v>14590</v>
+        <v>11195</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>86</v>
@@ -1096,19 +1096,19 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>3775</v>
+        <v>7170</v>
       </c>
       <c r="E5" s="2">
         <v>3775</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>3395</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>87</v>
@@ -1176,18 +1176,18 @@
     </row>
     <row r="20" spans="3:6">
       <c r="C20" s="3">
-        <v>0.5454545454545454</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="F20" s="3">
-        <v>0.5398557100123175</v>
+        <v>0.4203765616751716</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" s="3">
-        <v>0.1818181818181818</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="F21" s="3">
-        <v>0.1328523667077248</v>
+        <v>0.2523315150448707</v>
       </c>
     </row>
     <row r="22" spans="3:6">
@@ -1214,7 +1214,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1440,63 +1440,25 @@
         <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +1468,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1565,22 +1527,22 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -1592,7 +1554,7 @@
         <v>31</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>20</v>
@@ -1603,22 +1565,22 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>17</v>
@@ -1630,13 +1592,51 @@
         <v>31</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1860,7 @@
         <v>75</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -1875,7 +1875,7 @@
         <v>77</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>78</v>
